--- a/Wiki/Areas/Reclamation/Content/report.xlsx
+++ b/Wiki/Areas/Reclamation/Content/report.xlsx
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="62" r:id="rId5"/>
-    <pivotCache cacheId="66" r:id="rId6"/>
+    <pivotCache cacheId="70" r:id="rId5"/>
+    <pivotCache cacheId="72" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -953,7 +953,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="240">
+  <dxfs count="296">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1038,6 +1038,196 @@
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
       </font>
     </dxf>
     <dxf>
@@ -1846,65 +2036,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Мельников Юрий" refreshedDate="43802.467643981479" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="112">
-  <cacheSource type="external" connectionId="2"/>
-  <cacheFields count="3">
-    <cacheField name="СП" numFmtId="0">
-      <sharedItems count="14">
-        <s v="ГРМ"/>
-        <s v="ГРЭ"/>
-        <s v="КБМ"/>
-        <s v="КБЭ"/>
-        <s v="ОС"/>
-        <s v="ОТК"/>
-        <s v="Руководство"/>
-        <s v="Склад"/>
-        <s v="УИШ (Шинный)"/>
-        <s v="УОГП"/>
-        <s v="УСМК (Модуль)"/>
-        <s v="УСР (Сварочный)"/>
-        <s v="УСШ (Шкафы)"/>
-        <s v="ЭМУ"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Тип" numFmtId="0">
-      <sharedItems count="20">
-        <s v="Документация на иностранном языке"/>
-        <s v="Не заложено в 1с"/>
-        <s v="Несоответствие КД - ТНПА"/>
-        <s v="Отсутствие маркировки"/>
-        <s v="Ошибка монтажа"/>
-        <s v="Ошибка проектирования"/>
-        <s v="Ошибка сборки"/>
-        <s v="Дефектные комплектующие"/>
-        <s v="Несоответствие 1с схемам"/>
-        <s v="Несоответствие РКД"/>
-        <s v="Отклонение от процедуры"/>
-        <s v="Изменение КД"/>
-        <s v="Дефицит"/>
-        <s v="Оборудование не опробавано"/>
-        <s v="Отсутствие документов"/>
-        <s v="Ошибка маркировки"/>
-        <s v="Ошибка программирования"/>
-        <s v="Отсутствие/повреждение ЛКП"/>
-        <s v="Производственный мусор"/>
-        <s v="Ошибка коммутации"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="counter" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4530000000000001E-3" maxValue="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Мельников Юрий" refreshedDate="43802.467644675926" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2443">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Мельников Юрий" refreshedDate="43802.521054513891" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2443">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="data"/>
   </cacheSource>
@@ -1966,572 +2098,65 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="112">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3.4481999999999999E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="3.4481999999999999E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="3.4481999999999999E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="3.4481999999999999E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="3.4481999999999999E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="0.68965500000000002"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="0.137931"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <n v="2.5641000000000001E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <n v="2.5641000000000001E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="0.102564"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <n v="2.5641000000000001E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="10"/>
-    <n v="0.12820500000000001"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="2.5641000000000001E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="0.66666599999999998"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <n v="2.421E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="11"/>
-    <n v="4.8419999999999999E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="5.5690000000000003E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="5.0847000000000003E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="9"/>
-    <n v="7.5060000000000002E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="10"/>
-    <n v="6.7795999999999995E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="1.2106E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <n v="0.71912799999999999"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <n v="1.2106E-2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <n v="2.8680000000000001E-2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="12"/>
-    <n v="1.9120000000000001E-3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <n v="5.7359999999999998E-3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="9.5600000000000008E-3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <n v="9.5600000000000008E-3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="9.5600000000000008E-3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <n v="9.5602000000000006E-2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="13"/>
-    <n v="5.7359999999999998E-3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="10"/>
-    <n v="3.2503999999999998E-2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="14"/>
-    <n v="3.8240000000000001E-3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="3.2503999999999998E-2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="15"/>
-    <n v="7.4568999999999996E-2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="7.0745000000000002E-2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="16"/>
-    <n v="1.3384E-2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="5"/>
-    <n v="0.60038199999999997"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="6"/>
-    <n v="5.7359999999999998E-3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="7"/>
-    <n v="0.35423100000000002"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="12"/>
-    <n v="2.8212999999999998E-2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <n v="3.1340000000000001E-3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="11"/>
-    <n v="3.1340000000000001E-3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="8"/>
-    <n v="1.2539E-2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="10"/>
-    <n v="2.5078E-2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="14"/>
-    <n v="0.52351000000000003"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="15"/>
-    <n v="3.1340000000000001E-3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="2.8212999999999998E-2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="5"/>
-    <n v="9.4039999999999992E-3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="6"/>
-    <n v="9.4039999999999992E-3"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="7"/>
-    <n v="0.114285"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="12"/>
-    <n v="5.7141999999999998E-2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="13"/>
-    <n v="0.304761"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="10"/>
-    <n v="9.5238000000000003E-2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="14"/>
-    <n v="4.7619000000000002E-2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <n v="3.8094999999999997E-2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="17"/>
-    <n v="0.13333300000000001"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="15"/>
-    <n v="2.8570999999999999E-2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="4"/>
-    <n v="0.114285"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <n v="6.6666000000000003E-2"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="9"/>
-    <n v="6.25E-2"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="10"/>
-    <n v="0.875"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <n v="6.25E-2"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <n v="0.16666600000000001"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="17"/>
-    <n v="0.66666599999999998"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="4"/>
-    <n v="8.3333000000000004E-2"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="5"/>
-    <n v="8.3333000000000004E-2"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="10"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="13"/>
-    <n v="7.1428000000000005E-2"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="10"/>
-    <n v="0.14285700000000001"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <n v="0.14285700000000001"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="18"/>
-    <n v="0.64285700000000001"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="7"/>
-    <n v="4.4117000000000003E-2"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="12"/>
-    <n v="1.4704999999999999E-2"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <n v="0.16176399999999999"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
-    <n v="1.4704999999999999E-2"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="17"/>
-    <n v="0.20588200000000001"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="15"/>
-    <n v="7.3528999999999997E-2"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="4"/>
-    <n v="0.19117600000000001"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="5"/>
-    <n v="1.4704999999999999E-2"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="6"/>
-    <n v="0.20588200000000001"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="18"/>
-    <n v="7.3528999999999997E-2"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="7"/>
-    <n v="7.6923000000000005E-2"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="10"/>
-    <n v="0.115384"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="17"/>
-    <n v="0.57692299999999996"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="6"/>
-    <n v="0.230769"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="7"/>
-    <n v="0.120805"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="9"/>
-    <n v="1.3422E-2"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="10"/>
-    <n v="0.25503300000000001"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="3"/>
-    <n v="4.0267999999999998E-2"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="17"/>
-    <n v="4.6979E-2"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="19"/>
-    <n v="6.711E-3"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="15"/>
-    <n v="3.3556999999999997E-2"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="4"/>
-    <n v="0.27516699999999999"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="5"/>
-    <n v="1.3422E-2"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="6"/>
-    <n v="0.154362"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="18"/>
-    <n v="4.0267999999999998E-2"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="7"/>
-    <n v="2.7616000000000002E-2"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="12"/>
-    <n v="5.8129999999999996E-3"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="11"/>
-    <n v="1.4530000000000001E-3"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="8"/>
-    <n v="1.4530000000000001E-3"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="2"/>
-    <n v="2.9060000000000002E-3"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="9"/>
-    <n v="2.9060000000000002E-3"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="10"/>
-    <n v="8.7208999999999995E-2"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="3"/>
-    <n v="8.1394999999999995E-2"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="17"/>
-    <n v="1.4530000000000001E-3"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="19"/>
-    <n v="5.3779E-2"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="15"/>
-    <n v="0.12790599999999999"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="4"/>
-    <n v="0.55377900000000002"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="5"/>
-    <n v="1.5987999999999999E-2"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="6"/>
-    <n v="2.0348000000000002E-2"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="18"/>
-    <n v="1.5987999999999999E-2"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Мельников Юрий" refreshedDate="43802.521056481484" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="112">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="3">
+    <cacheField name="СП" numFmtId="0">
+      <sharedItems count="14">
+        <s v="ГРМ"/>
+        <s v="ГРЭ"/>
+        <s v="КБМ"/>
+        <s v="КБЭ"/>
+        <s v="ОС"/>
+        <s v="ОТК"/>
+        <s v="Руководство"/>
+        <s v="Склад"/>
+        <s v="УИШ (Шинный)"/>
+        <s v="УОГП"/>
+        <s v="УСМК (Модуль)"/>
+        <s v="УСР (Сварочный)"/>
+        <s v="УСШ (Шкафы)"/>
+        <s v="ЭМУ"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Тип" numFmtId="0">
+      <sharedItems count="20">
+        <s v="Документация на иностранном языке"/>
+        <s v="Не заложено в 1с"/>
+        <s v="Несоответствие КД - ТНПА"/>
+        <s v="Отсутствие маркировки"/>
+        <s v="Ошибка монтажа"/>
+        <s v="Ошибка проектирования"/>
+        <s v="Ошибка сборки"/>
+        <s v="Дефектные комплектующие"/>
+        <s v="Несоответствие 1с схемам"/>
+        <s v="Несоответствие РКД"/>
+        <s v="Отклонение от процедуры"/>
+        <s v="Изменение КД"/>
+        <s v="Дефицит"/>
+        <s v="Оборудование не опробавано"/>
+        <s v="Отсутствие документов"/>
+        <s v="Ошибка маркировки"/>
+        <s v="Ошибка программирования"/>
+        <s v="Отсутствие/повреждение ЛКП"/>
+        <s v="Производственный мусор"/>
+        <s v="Ошибка коммутации"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="counter" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4530000000000001E-3" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2443">
   <r>
     <n v="1780"/>
@@ -19637,8 +19262,573 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="112">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.4481999999999999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3.4481999999999999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.4481999999999999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.4481999999999999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3.4481999999999999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0.68965500000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="0.137931"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2.5641000000000001E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="2.5641000000000001E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.102564"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="2.5641000000000001E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0.12820500000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2.5641000000000001E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0.66666599999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="2.421E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="4.8419999999999999E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5.5690000000000003E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5.0847000000000003E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="7.5060000000000002E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="6.7795999999999995E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1.2106E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="0.71912799999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="1.2106E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="2.8680000000000001E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="12"/>
+    <n v="1.9120000000000001E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="5.7359999999999998E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="9.5600000000000008E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="9.5600000000000008E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="9.5600000000000008E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="9.5602000000000006E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="13"/>
+    <n v="5.7359999999999998E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="3.2503999999999998E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="14"/>
+    <n v="3.8240000000000001E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3.2503999999999998E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="15"/>
+    <n v="7.4568999999999996E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="7.0745000000000002E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="16"/>
+    <n v="1.3384E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.60038199999999997"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="5.7359999999999998E-3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="0.35423100000000002"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+    <n v="2.8212999999999998E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3.1340000000000001E-3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="11"/>
+    <n v="3.1340000000000001E-3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="1.2539E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <n v="2.5078E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="14"/>
+    <n v="0.52351000000000003"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="15"/>
+    <n v="3.1340000000000001E-3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="2.8212999999999998E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="9.4039999999999992E-3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="9.4039999999999992E-3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="0.114285"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="12"/>
+    <n v="5.7141999999999998E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="13"/>
+    <n v="0.304761"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="10"/>
+    <n v="9.5238000000000003E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+    <n v="4.7619000000000002E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="3.8094999999999997E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="17"/>
+    <n v="0.13333300000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="15"/>
+    <n v="2.8570999999999999E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="0.114285"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="6.6666000000000003E-2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="9"/>
+    <n v="6.25E-2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="10"/>
+    <n v="0.875"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="6.25E-2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="0.16666600000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="17"/>
+    <n v="0.66666599999999998"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="8.3333000000000004E-2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="8.3333000000000004E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="10"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="13"/>
+    <n v="7.1428000000000005E-2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="10"/>
+    <n v="0.14285700000000001"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="0.14285700000000001"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="18"/>
+    <n v="0.64285700000000001"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="7"/>
+    <n v="4.4117000000000003E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="12"/>
+    <n v="1.4704999999999999E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="0.16176399999999999"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="1.4704999999999999E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="17"/>
+    <n v="0.20588200000000001"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="15"/>
+    <n v="7.3528999999999997E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="0.19117600000000001"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <n v="1.4704999999999999E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+    <n v="0.20588200000000001"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="18"/>
+    <n v="7.3528999999999997E-2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="7"/>
+    <n v="7.6923000000000005E-2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="10"/>
+    <n v="0.115384"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="17"/>
+    <n v="0.57692299999999996"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="6"/>
+    <n v="0.230769"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="7"/>
+    <n v="0.120805"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="9"/>
+    <n v="1.3422E-2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="10"/>
+    <n v="0.25503300000000001"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="4.0267999999999998E-2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="17"/>
+    <n v="4.6979E-2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="19"/>
+    <n v="6.711E-3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="15"/>
+    <n v="3.3556999999999997E-2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="0.27516699999999999"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+    <n v="1.3422E-2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="6"/>
+    <n v="0.154362"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="18"/>
+    <n v="4.0267999999999998E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="7"/>
+    <n v="2.7616000000000002E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="12"/>
+    <n v="5.8129999999999996E-3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="11"/>
+    <n v="1.4530000000000001E-3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="8"/>
+    <n v="1.4530000000000001E-3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="2.9060000000000002E-3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="9"/>
+    <n v="2.9060000000000002E-3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="10"/>
+    <n v="8.7208999999999995E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="8.1394999999999995E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="17"/>
+    <n v="1.4530000000000001E-3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="19"/>
+    <n v="5.3779E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="15"/>
+    <n v="0.12790599999999999"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="4"/>
+    <n v="0.55377900000000002"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="5"/>
+    <n v="1.5987999999999999E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="6"/>
+    <n v="2.0348000000000002E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="18"/>
+    <n v="1.5987999999999999E-2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица9" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Структура замечаний (кроме ПО):" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица9" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Структура замечаний (кроме ПО):" fieldListSortAscending="1">
   <location ref="A87:B152" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -19893,22 +20083,22 @@
     <dataField name="Процент однотипных замечаний" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="187">
+    <format dxfId="243">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="242">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="241">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="184">
+    <format dxfId="240">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="239">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="238">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -19922,7 +20112,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица8" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Структура замечаний (ПО):" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица8" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Структура замечаний (ПО):" fieldListSortAscending="1">
   <location ref="A35:B81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -20120,22 +20310,22 @@
     <dataField name="Процент однотипных замечаний" fld="2" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="193">
+    <format dxfId="249">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="248">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="191">
+    <format dxfId="247">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="190">
+    <format dxfId="246">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="189">
+    <format dxfId="245">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="244">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -20149,7 +20339,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица6" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Месяц">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица6" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Месяц">
   <location ref="A18:I32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -20274,52 +20464,52 @@
     <dataField name="Количество замечаний к отделам (кроме ПО) по месяцам:" fld="3" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="207">
+    <format dxfId="263">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="206">
+    <format dxfId="262">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="205">
+    <format dxfId="261">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="204">
+    <format dxfId="260">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="203">
+    <format dxfId="259">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="202">
+    <format dxfId="258">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="201">
+    <format dxfId="257">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="256">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="199">
+    <format dxfId="255">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="254">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="253">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="252">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="7">
@@ -20334,10 +20524,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="195">
+    <format dxfId="251">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="194">
+    <format dxfId="250">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
   </formats>
@@ -20351,7 +20541,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица5" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Месяц">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица5" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Месяц">
   <location ref="A1:G15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -20470,55 +20660,55 @@
     <dataField name="Количество замечаний к ПО по месяцам:" fld="3" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="223">
+    <format dxfId="279">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="222">
+    <format dxfId="278">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
+    <format dxfId="277">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="220">
+    <format dxfId="276">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="219">
+    <format dxfId="275">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="218">
+    <format dxfId="274">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="217">
+    <format dxfId="273">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="216">
+    <format dxfId="272">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="215">
+    <format dxfId="271">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="214">
+    <format dxfId="270">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="213">
+    <format dxfId="269">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="212">
+    <format dxfId="268">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="267">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="7">
@@ -20533,13 +20723,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="210">
+    <format dxfId="266">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="209">
+    <format dxfId="265">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="208">
+    <format dxfId="264">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
   </formats>
@@ -20553,7 +20743,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица10" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Месяц">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица10" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Месяц">
   <location ref="A156:A157" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -20611,46 +20801,46 @@
     <dataField name="Всего оформлено замечаний в 2019 году:" fld="3" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="237">
+    <format dxfId="293">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="236">
+    <format dxfId="292">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="235">
+    <format dxfId="291">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="234">
+    <format dxfId="290">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="233">
+    <format dxfId="289">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="232">
+    <format dxfId="288">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="231">
+    <format dxfId="287">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="230">
+    <format dxfId="286">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="229">
+    <format dxfId="285">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
-    <format dxfId="228">
+    <format dxfId="284">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="227">
+    <format dxfId="283">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="226">
+    <format dxfId="282">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="225">
+    <format dxfId="281">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="224">
+    <format dxfId="280">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20694,7 +20884,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица_ExternalData_1" displayName="Таблица_ExternalData_1" ref="A1:E2443" tableType="queryTable" totalsRowShown="0" headerRowDxfId="239" dataDxfId="238">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица_ExternalData_1" displayName="Таблица_ExternalData_1" ref="A1:E2443" tableType="queryTable" totalsRowShown="0" headerRowDxfId="295" dataDxfId="294">
   <autoFilter ref="A1:E2443"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="№ замечания" queryTableFieldId="1" dataDxfId="11"/>
@@ -20708,7 +20898,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица_ExternalData_13" displayName="Таблица_ExternalData_13" ref="A1:G95" tableType="queryTable" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица_ExternalData_13" displayName="Таблица_ExternalData_13" ref="A1:G95" tableType="queryTable" totalsRowShown="0" headerRowDxfId="237" dataDxfId="236">
   <autoFilter ref="A1:G95"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="1" name="№ замечания" queryTableFieldId="1" dataDxfId="6"/>
@@ -20988,8 +21178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
